--- a/biology/Médecine/Emmanuel_Pouliquen/Emmanuel_Pouliquen.xlsx
+++ b/biology/Médecine/Emmanuel_Pouliquen/Emmanuel_Pouliquen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emmanuel Pouliquen est un médecin et chirurgien orthopédiste français né le 27 avril 1878 à Landivisiau et mort le 9 mars 1960 à Landerneau.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Emmanuel Louis Marie Pouliquen est le fils de François Pouliquen et de Marie Yvonne Queinnec.
 Après ses études à la faculté de médecine de Paris, il devient externe des hôpitaux, interne à l'hôpital Saint-Joseph puis chirurgien de l'hôpital civil de Brest en 1905.
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Publications
-Luxations congénitales de la hanche (1958)
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Luxations congénitales de la hanche (1958)
 Contribution à l'étude du traitement de l'invagination intestinale aiguë du nourrisson (1934)
 Au sujet du diagnostic précoce et du traitement de l'invagination intestinale du nourrisson</t>
         </is>
@@ -578,7 +597,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rue du Docteur Emmanuel Pouliquen, à Brest
 Rue Emmanuel Pouliquen, à Quimper
